--- a/pandas/PandasExample.xlsx
+++ b/pandas/PandasExample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,45 @@
   </si>
   <si>
     <t>Clay</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Ktm</t>
+  </si>
+  <si>
+    <t>Bkt</t>
+  </si>
+  <si>
+    <t>Ltpr</t>
+  </si>
+  <si>
+    <t>Lltpr</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Hehnna</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
 </sst>
 </file>
@@ -384,15 +423,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -402,10 +444,19 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -416,10 +467,19 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>1050</v>
+      </c>
+      <c r="G2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -430,10 +490,19 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>990</v>
+      </c>
+      <c r="G3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -444,10 +513,19 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>914</v>
+      </c>
+      <c r="G4">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -458,10 +536,19 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>958</v>
+      </c>
+      <c r="G5">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -471,6 +558,130 @@
       </c>
       <c r="D6" t="s">
         <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>995</v>
+      </c>
+      <c r="G6">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>954</v>
+      </c>
+      <c r="G8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>850</v>
+      </c>
+      <c r="G9">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>990</v>
+      </c>
+      <c r="G10">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>991</v>
+      </c>
+      <c r="G11">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
